--- a/how_to_use/metadata.xlsx
+++ b/how_to_use/metadata.xlsx
@@ -1,21 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/df/vfrxmwzx5xq2w6zj8xjqv2zw0000gr/T/ch.sudo.cyberduck/editor-f856f7a0-8a80-4962-84c3-be24cc70d112/data/qkgimi/optiles_github/how_to_use/-1353348147/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EABF1FB-A0CA-9844-9B87-2611CB6A5CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="36100" yWindow="2220" windowWidth="28180" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Well-plate</t>
+  </si>
+  <si>
+    <t>Cell Density</t>
+  </si>
+  <si>
+    <t>PMA concentration</t>
+  </si>
+  <si>
+    <t>PMA exposure</t>
+  </si>
+  <si>
+    <t>novogene_2024-DNAconc[ng/ul]</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>timepoint</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>treatment_vector</t>
+  </si>
+  <si>
+    <t>72_C_1</t>
+  </si>
+  <si>
+    <t>0.5 106 cells/ml</t>
+  </si>
+  <si>
+    <t>30.9 ng/ml</t>
+  </si>
+  <si>
+    <t>48h</t>
+  </si>
+  <si>
+    <t>72h</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>72_C</t>
+  </si>
+  <si>
+    <t>72_C_2</t>
+  </si>
+  <si>
+    <t>72_C_3</t>
+  </si>
+  <si>
+    <t>72_C_4</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,294 +443,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Well-plate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cell Density</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PMA concentration</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PMA exposure</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IL-4 conc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>IL-13 conc</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>INFgamma conc</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>LPS conc</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Cytokines exposure</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>novogene_2024-DNAconc[ng/ul]</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sample_type</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>timepoint</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>condition</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>treatment_vector</t>
-        </is>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>72_C_1</t>
-        </is>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.5 106 cells/ml</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.9 ng/ml</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>48h</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>72h</t>
-        </is>
-      </c>
-      <c r="K2">
-        <v>40.8</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>72_C</t>
-        </is>
-      </c>
-      <c r="P2">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>72_C_2</t>
-        </is>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.5 106 cells/ml</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.9 ng/ml</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>48h</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>72h</t>
-        </is>
-      </c>
-      <c r="K3">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>44.8</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>72_C</t>
-        </is>
-      </c>
-      <c r="P3">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>72_C_3</t>
-        </is>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.5 106 cells/ml</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.9 ng/ml</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>48h</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>72h</t>
-        </is>
-      </c>
-      <c r="K4">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>48.4</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>72_C</t>
-        </is>
-      </c>
-      <c r="P4">
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>72_C_4</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>72_C</t>
-        </is>
-      </c>
-      <c r="P5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>48.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;11&amp;K000000 TUNI Luottamuksellinen - Confidential (3Y)&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{74814fa1-1a0b-42d1-967a-caddbf829325}" enabled="1" method="Standard" siteId="{fa6944af-cc7c-4cd8-9154-c01132798910}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>